--- a/data/excel_doc/esyjy_id_lims.xlsx
+++ b/data/excel_doc/esyjy_id_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,50 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GS2309050074B001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>23950074</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>21基因</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HSTQ2023090600001</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GS2309050075B001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>23950075</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>21基因</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HSTQ2023090600001</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel_doc/esyjy_id_lims.xlsx
+++ b/data/excel_doc/esyjy_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309050074B001</t>
+          <t>GS2309060006B001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>23950074</t>
+          <t>23960006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,19 +461,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HSTQ2023090600001</t>
+          <t>HSTQ2023090600002</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GS2309050075B001</t>
+          <t>GS2309060007B001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>23950075</t>
+          <t>23960007</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HSTQ2023090600001</t>
+          <t>HSTQ2023090600002</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/esyjy_id_lims.xlsx
+++ b/data/excel_doc/esyjy_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309060006B001</t>
+          <t>GS2309070038B001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>23960006</t>
+          <t>23970032</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,19 +461,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HSTQ2023090600002</t>
+          <t>HSTQ2023090800001</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GS2309060007B001</t>
+          <t>GS2309070039B001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>23960007</t>
+          <t>23970033</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HSTQ2023090600002</t>
+          <t>HSTQ2023090800001</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/esyjy_id_lims.xlsx
+++ b/data/excel_doc/esyjy_id_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,50 +443,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GS2309070038B001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>23970032</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>21基因</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>HSTQ2023090800001</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GS2309070039B001</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>23970033</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>21基因</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>HSTQ2023090800001</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel_doc/esyjy_id_lims.xlsx
+++ b/data/excel_doc/esyjy_id_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,50 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GS2309080094B001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>23980094</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>21基因</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HSTQ2023090800004</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GS2309080095B001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>23980095</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>21基因</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HSTQ2023090800004</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel_doc/esyjy_id_lims.xlsx
+++ b/data/excel_doc/esyjy_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309080094B001</t>
+          <t>GS2309110003B001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>23980094</t>
+          <t>239A0003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,19 +461,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HSTQ2023090800004</t>
+          <t>HSTQ2023091100001</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GS2309080095B001</t>
+          <t>GS2309110004B001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>23980095</t>
+          <t>239A0004</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HSTQ2023090800004</t>
+          <t>HSTQ2023091100001</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/esyjy_id_lims.xlsx
+++ b/data/excel_doc/esyjy_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309110003B001</t>
+          <t>GS2309120059B001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>239A0003</t>
+          <t>239B0059</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,19 +461,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HSTQ2023091100001</t>
+          <t>HSTQ2023091200005</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GS2309110004B001</t>
+          <t>GS2309120060B001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>239A0004</t>
+          <t>239B0060</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HSTQ2023091100001</t>
+          <t>HSTQ2023091200005</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/esyjy_id_lims.xlsx
+++ b/data/excel_doc/esyjy_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309120059B001</t>
+          <t>GS2309150036B001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>239B0059</t>
+          <t>239E0036</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,19 +461,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HSTQ2023091200005</t>
+          <t>HSTQ2023091500006</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GS2309120060B001</t>
+          <t>GS2309150037B001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>239B0060</t>
+          <t>239E0037</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HSTQ2023091200005</t>
+          <t>HSTQ2023091500006</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/esyjy_id_lims.xlsx
+++ b/data/excel_doc/esyjy_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309150036B001</t>
+          <t>GS2309180004B001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>239E0036</t>
+          <t>239H0004</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,19 +461,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HSTQ2023091500006</t>
+          <t>HSTQ2023091800002</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GS2309150037B001</t>
+          <t>GS2309180005B001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>239E0037</t>
+          <t>239H0005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HSTQ2023091500006</t>
+          <t>HSTQ2023091800002</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/esyjy_id_lims.xlsx
+++ b/data/excel_doc/esyjy_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309180004B001</t>
+          <t>GS2401150007B001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>239H0004</t>
+          <t>241E0007</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,19 +461,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HSTQ2023091800002</t>
+          <t>HSTQ2024011500002</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GS2309180005B001</t>
+          <t>GS2401150008B001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>239H0005</t>
+          <t>241E0008</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HSTQ2023091800002</t>
+          <t>HSTQ2024011500002</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/esyjy_id_lims.xlsx
+++ b/data/excel_doc/esyjy_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2401150007B001</t>
+          <t>GS2310270046B001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>241E0007</t>
+          <t>230S0046</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,19 +461,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HSTQ2024011500002</t>
+          <t>HSTQ2023102700008</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GS2401150008B001</t>
+          <t>GS2310270047B001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>241E0008</t>
+          <t>230S0047</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HSTQ2024011500002</t>
+          <t>HSTQ2023102700008</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/esyjy_id_lims.xlsx
+++ b/data/excel_doc/esyjy_id_lims.xlsx
@@ -1,34 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作文件夹\自动化文档\正式脚本\世和LIMS脚本\LIMS_UI_TEST\data\excel_doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B95A11D-DB58-46D0-9268-541E0F220127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+  <si>
+    <t>lims号</t>
+  </si>
+  <si>
+    <t>实验室号</t>
+  </si>
+  <si>
+    <t>当前节点</t>
+  </si>
+  <si>
+    <t>任务单号</t>
+  </si>
+  <si>
+    <t>230S0046</t>
+  </si>
+  <si>
+    <t>21基因</t>
+  </si>
+  <si>
+    <t>HSTQ2023102700008</t>
+  </si>
+  <si>
+    <t>230S0047</t>
+  </si>
+  <si>
+    <t>GS2312130003B004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2312130003B003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color rgb="FF606266"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,81 +100,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,86 +404,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="44.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>lims号</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>实验室号</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>当前节点</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>任务单号</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GS2310270046B001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>230S0046</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>21基因</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>HSTQ2023102700008</t>
-        </is>
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GS2310270047B001</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>230S0047</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>21基因</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>HSTQ2023102700008</t>
-        </is>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/excel_doc/esyjy_id_lims.xlsx
+++ b/data/excel_doc/esyjy_id_lims.xlsx
@@ -1,88 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作文件夹\自动化文档\正式脚本\世和LIMS脚本\LIMS_UI_TEST\data\excel_doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B95A11D-DB58-46D0-9268-541E0F220127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>lims号</t>
-  </si>
-  <si>
-    <t>实验室号</t>
-  </si>
-  <si>
-    <t>当前节点</t>
-  </si>
-  <si>
-    <t>任务单号</t>
-  </si>
-  <si>
-    <t>230S0046</t>
-  </si>
-  <si>
-    <t>21基因</t>
-  </si>
-  <si>
-    <t>HSTQ2023102700008</t>
-  </si>
-  <si>
-    <t>230S0047</t>
-  </si>
-  <si>
-    <t>GS2312130003B004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GS2312130003B003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF606266"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -100,23 +46,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -404,62 +408,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="44.875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>lims号</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>实验室号</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>当前节点</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>任务单号</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GS2401160009B001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>241F0009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>21基因</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HSTQ2024011600004</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GS2401160010B001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>241F0010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>21基因</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HSTQ2024011600004</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/excel_doc/esyjy_id_lims.xlsx
+++ b/data/excel_doc/esyjy_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2401160009B001</t>
+          <t>GS2404290627B001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>241F0009</t>
+          <t>244U0627</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,19 +461,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HSTQ2024011600004</t>
+          <t>HSTQ2024042900003</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GS2401160010B001</t>
+          <t>GS2404290628B001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>241F0010</t>
+          <t>244U0628</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HSTQ2024011600004</t>
+          <t>HSTQ2024042900003</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/esyjy_id_lims.xlsx
+++ b/data/excel_doc/esyjy_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2404290627B001</t>
+          <t>GS2405210047B001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>244U0627</t>
+          <t>245L0047</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,19 +461,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HSTQ2024042900003</t>
+          <t>HSTQ2024052100003</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GS2404290628B001</t>
+          <t>GS2405210048B001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>244U0628</t>
+          <t>245L0048</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HSTQ2024042900003</t>
+          <t>HSTQ2024052100003</t>
         </is>
       </c>
     </row>
